--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8079" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06B6E80-FBD7-4FE5-ABDD-8ED1A650238D}"/>
+  <xr:revisionPtr revIDLastSave="8081" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7C107B-6AB2-49C1-BCB8-AD8AD838A8EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -1930,9 +1930,6 @@
     <t>María José Martínez Sánchez (SPAIN)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Pauline Parmentier (FRANCE)</t>
   </si>
   <si>
@@ -2408,6 +2405,9 @@
   </si>
   <si>
     <t>7-6(5) 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -2512,17 +2512,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4922,7 +4912,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2C4C579C-D1B5-441D-B68A-5E8A35AB8CD2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4978,8 +4968,8 @@
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5006,10 +4996,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5314,21 +5300,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5348,7 +5334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -5368,7 +5354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -5401,21 +5387,21 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5435,7 +5421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>488</v>
       </c>
@@ -5455,7 +5441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5469,7 +5455,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -5489,7 +5475,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -5509,7 +5495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5509,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5537,7 +5523,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -5557,7 +5543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>379</v>
       </c>
@@ -5577,7 +5563,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -5597,7 +5583,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5611,7 +5597,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -5645,7 +5631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -5665,9 +5651,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5685,7 +5671,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -5699,7 +5685,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -5719,7 +5705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -5733,7 +5719,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -5753,7 +5739,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -5767,7 +5753,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -5787,7 +5773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5807,7 +5793,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -5827,7 +5813,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>325</v>
       </c>
@@ -5847,7 +5833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -5861,7 +5847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -5875,7 +5861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5895,7 +5881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -5909,7 +5895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -5923,7 +5909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5943,7 +5929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -5957,7 +5943,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +5957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +5971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>40</v>
       </c>
@@ -5999,7 +5985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -6019,7 +6005,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +6019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6047,7 +6033,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6061,7 +6047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6061,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>341</v>
       </c>
@@ -6095,7 +6081,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -6115,7 +6101,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -6129,7 +6115,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -6149,7 +6135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -6163,7 +6149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6177,7 +6163,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -6191,7 +6177,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>431</v>
       </c>
@@ -6211,7 +6197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -6225,7 +6211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6245,7 +6231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -6259,7 +6245,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>545</v>
       </c>
@@ -6279,7 +6265,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>483</v>
       </c>
@@ -6299,7 +6285,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -6313,7 +6299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>274</v>
       </c>
@@ -6333,7 +6319,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -6347,7 +6333,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -6361,7 +6347,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -6389,21 +6375,21 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6423,7 +6409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>600</v>
       </c>
@@ -6443,7 +6429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6457,7 +6443,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6471,7 +6457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6471,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -6499,7 +6485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>488</v>
       </c>
@@ -6519,7 +6505,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -6539,7 +6525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -6553,7 +6539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -6567,7 +6553,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -6581,7 +6567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -6595,7 +6581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -6615,7 +6601,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6629,7 +6615,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6643,7 +6629,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>610</v>
       </c>
@@ -6663,7 +6649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6677,7 +6663,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6691,7 +6677,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>40</v>
       </c>
@@ -6719,7 +6705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>216</v>
       </c>
@@ -6739,7 +6725,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -6759,7 +6745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>238</v>
       </c>
@@ -6779,9 +6765,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6799,7 +6785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -6813,7 +6799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -6827,7 +6813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -6841,7 +6827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -6861,7 +6847,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6875,7 +6861,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6889,7 +6875,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>318</v>
       </c>
@@ -6909,7 +6895,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -6923,9 +6909,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>626</v>
+        <v>785</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -6943,7 +6929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -6954,16 +6940,16 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
+        <v>626</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
         <v>627</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>22</v>
       </c>
@@ -6977,7 +6963,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>325</v>
       </c>
@@ -6997,7 +6983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -7011,12 +6997,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -7025,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7039,7 +7025,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -7050,7 +7036,7 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -7059,12 +7045,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -7073,7 +7059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7084,10 +7070,10 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -7104,10 +7090,10 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7121,7 +7107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7132,24 +7118,24 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -7160,10 +7146,10 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>341</v>
       </c>
@@ -7174,7 +7160,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>15</v>
@@ -7183,7 +7169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7203,7 +7189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7220,10 +7206,10 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7234,10 +7220,10 @@
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -7248,7 +7234,7 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>16</v>
@@ -7257,21 +7243,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>431</v>
       </c>
@@ -7282,7 +7268,7 @@
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>16</v>
@@ -7291,7 +7277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -7305,21 +7291,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
       <c r="D76" t="s">
+        <v>642</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
         <v>643</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7333,7 +7319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>474</v>
       </c>
@@ -7353,7 +7339,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -7367,12 +7353,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -7381,7 +7367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -7392,10 +7378,10 @@
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -7409,7 +7395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>414</v>
       </c>
@@ -7429,12 +7415,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -7443,21 +7429,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>350</v>
       </c>
@@ -7477,7 +7463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>555</v>
       </c>
@@ -7491,12 +7477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>16</v>
@@ -7505,7 +7491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>40</v>
       </c>
@@ -7516,7 +7502,7 @@
         <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -7533,21 +7519,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7567,7 +7553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -7578,7 +7564,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -7587,12 +7573,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -7601,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7612,10 +7598,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -7626,7 +7612,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -7635,12 +7621,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -7649,7 +7635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7660,10 +7646,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -7674,7 +7660,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -7683,12 +7669,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -7697,7 +7683,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7711,7 +7697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -7731,7 +7717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7745,12 +7731,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -7759,12 +7745,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
@@ -7773,7 +7759,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7787,9 +7773,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -7804,10 +7790,10 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -7818,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>15</v>
@@ -7827,9 +7813,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>626</v>
+        <v>785</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -7838,21 +7824,21 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -7861,9 +7847,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -7878,10 +7864,10 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -7892,7 +7878,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -7901,12 +7887,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -7915,7 +7901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7926,10 +7912,10 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -7949,7 +7935,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7960,10 +7946,10 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7974,10 +7960,10 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7991,7 +7977,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -8002,7 +7988,7 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
@@ -8011,12 +7997,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>16</v>
@@ -8025,12 +8011,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -8039,7 +8025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8053,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -8064,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -8073,7 +8059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -8087,7 +8073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -8098,12 +8084,12 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>675</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -8118,10 +8104,10 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -8132,7 +8118,7 @@
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -8141,7 +8127,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -8155,7 +8141,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -8169,12 +8155,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>15</v>
@@ -8183,7 +8169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -8194,7 +8180,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -8203,12 +8189,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>16</v>
@@ -8217,7 +8203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -8231,7 +8217,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -8242,10 +8228,10 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -8262,15 +8248,15 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -8279,7 +8265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -8290,10 +8276,10 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8304,7 +8290,7 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -8313,7 +8299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -8327,9 +8313,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
@@ -8347,12 +8333,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>15</v>
@@ -8361,7 +8347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>431</v>
       </c>
@@ -8372,7 +8358,7 @@
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
@@ -8381,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8395,7 +8381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8406,10 +8392,10 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>474</v>
       </c>
@@ -8429,7 +8415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>414</v>
       </c>
@@ -8440,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -8449,12 +8435,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -8463,12 +8449,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -8477,7 +8463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -8504,21 +8490,21 @@
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8538,7 +8524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>600</v>
       </c>
@@ -8558,7 +8544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8569,10 +8555,10 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8586,7 +8572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8600,9 +8586,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -8620,7 +8606,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8634,7 +8620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8648,7 +8634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -8668,21 +8654,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>379</v>
       </c>
@@ -8693,7 +8679,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -8702,12 +8688,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -8716,7 +8702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8730,7 +8716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -8750,7 +8736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8778,7 +8764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8792,9 +8778,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -8803,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
@@ -8812,12 +8798,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -8826,7 +8812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8840,7 +8826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -8851,7 +8837,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -8860,7 +8846,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8874,21 +8860,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8899,15 +8885,15 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -8916,7 +8902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -8927,10 +8913,10 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -8950,12 +8936,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -8964,7 +8950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -8978,9 +8964,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -8998,7 +8984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -9018,12 +9004,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>15</v>
@@ -9032,9 +9018,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -9052,9 +9038,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>626</v>
+        <v>785</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -9063,7 +9049,7 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
@@ -9072,12 +9058,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>15</v>
@@ -9086,7 +9072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>318</v>
       </c>
@@ -9097,7 +9083,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -9106,12 +9092,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>15</v>
@@ -9120,7 +9106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -9131,7 +9117,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -9140,12 +9126,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>16</v>
@@ -9154,12 +9140,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>16</v>
@@ -9168,12 +9154,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -9182,7 +9168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>40</v>
       </c>
@@ -9196,7 +9182,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -9207,16 +9193,16 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -9227,24 +9213,24 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -9255,15 +9241,15 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
@@ -9272,7 +9258,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +9272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>325</v>
       </c>
@@ -9303,10 +9289,10 @@
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9320,7 +9306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -9331,15 +9317,15 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>16</v>
@@ -9348,7 +9334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9359,10 +9345,10 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -9382,7 +9368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -9393,10 +9379,10 @@
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -9407,10 +9393,10 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -9421,10 +9407,10 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -9435,10 +9421,10 @@
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -9449,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -9458,7 +9444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -9472,7 +9458,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -9486,7 +9472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>40</v>
       </c>
@@ -9500,7 +9486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -9520,7 +9506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>341</v>
       </c>
@@ -9537,10 +9523,10 @@
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -9551,10 +9537,10 @@
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9565,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -9574,7 +9560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -9585,10 +9571,10 @@
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -9602,7 +9588,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -9613,7 +9599,7 @@
         <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>16</v>
@@ -9622,12 +9608,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>15</v>
@@ -9636,7 +9622,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>412</v>
       </c>
@@ -9656,7 +9642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>3</v>
       </c>
@@ -9670,7 +9656,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>431</v>
       </c>
@@ -9687,10 +9673,10 @@
         <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>3</v>
       </c>
@@ -9704,7 +9690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -9718,7 +9704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>474</v>
       </c>
@@ -9735,15 +9721,15 @@
         <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>16</v>
@@ -9752,7 +9738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>3</v>
       </c>
@@ -9763,10 +9749,10 @@
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>414</v>
       </c>
@@ -9786,7 +9772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -9800,7 +9786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>2</v>
       </c>
@@ -9814,7 +9800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>0</v>
       </c>
@@ -9825,15 +9811,15 @@
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>16</v>
@@ -9842,7 +9828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>545</v>
       </c>
@@ -9853,7 +9839,7 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>16</v>
@@ -9862,7 +9848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>2</v>
       </c>
@@ -9876,7 +9862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>554</v>
       </c>
@@ -9893,7 +9879,7 @@
         <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -9909,21 +9895,21 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E91" activeCellId="24" sqref="E4 E8 E13 E18 E20 E25 E31 E34 E37 E39 E41 E43 E46 E51 E54 E57 E62 E65 E67 E71 E77 E79 E83 E89 E91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9943,7 +9929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>488</v>
       </c>
@@ -9954,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -9963,12 +9949,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -9977,7 +9963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9991,7 +9977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -10011,12 +9997,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -10025,7 +10011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10039,7 +10025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -10050,7 +10036,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -10059,21 +10045,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10084,10 +10070,10 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -10098,10 +10084,10 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>376</v>
       </c>
@@ -10112,7 +10098,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -10121,7 +10107,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10135,7 +10121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10149,21 +10135,21 @@
         <v>571</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>379</v>
       </c>
@@ -10183,7 +10169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>216</v>
       </c>
@@ -10194,21 +10180,21 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
+        <v>733</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>734</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>736</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
@@ -10217,7 +10203,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -10231,7 +10217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -10245,7 +10231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -10256,30 +10242,30 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10293,7 +10279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10307,7 +10293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -10321,9 +10307,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -10338,24 +10324,24 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -10375,12 +10361,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>15</v>
@@ -10389,9 +10375,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>626</v>
+        <v>785</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -10400,16 +10386,16 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>318</v>
       </c>
@@ -10420,7 +10406,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>15</v>
@@ -10429,9 +10415,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -10440,7 +10426,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>15</v>
@@ -10449,7 +10435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -10460,7 +10446,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
@@ -10469,21 +10455,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>325</v>
       </c>
@@ -10494,7 +10480,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -10503,7 +10489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -10517,7 +10503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -10531,7 +10517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -10542,10 +10528,10 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -10565,12 +10551,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>15</v>
@@ -10579,7 +10565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10590,7 +10576,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>16</v>
@@ -10599,12 +10585,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>15</v>
@@ -10613,9 +10599,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -10630,15 +10616,15 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -10647,21 +10633,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -10675,7 +10661,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10695,7 +10681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -10709,7 +10695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>341</v>
       </c>
@@ -10720,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>15</v>
@@ -10729,7 +10715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -10740,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
@@ -10749,21 +10735,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -10777,7 +10763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -10788,35 +10774,35 @@
         <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>22</v>
       </c>
       <c r="D74" t="s">
+        <v>760</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
         <v>761</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>762</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -10825,7 +10811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10836,15 +10822,15 @@
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>15</v>
@@ -10853,7 +10839,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -10864,16 +10850,16 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
+        <v>762</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
         <v>763</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>431</v>
       </c>
@@ -10884,7 +10870,7 @@
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -10893,12 +10879,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>16</v>
@@ -10907,7 +10893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -10921,7 +10907,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>474</v>
       </c>
@@ -10932,7 +10918,7 @@
         <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
@@ -10941,7 +10927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -10955,35 +10941,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -10997,7 +10983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>545</v>
       </c>
@@ -11031,21 +11017,21 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" activeCellId="13" sqref="E4 E8 E11 E14 E17 E21 E23 E25 E27 E31 E33 E37 E51 E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -11065,18 +11051,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>769</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>770</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -11085,12 +11071,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -11099,7 +11085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11113,7 +11099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -11124,7 +11110,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -11133,12 +11119,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -11147,21 +11133,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -11172,7 +11158,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -11181,21 +11167,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -11215,12 +11201,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
@@ -11229,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -11249,7 +11235,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -11260,10 +11246,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -11274,7 +11260,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -11283,12 +11269,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -11297,7 +11283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11311,7 +11297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -11328,10 +11314,10 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>610</v>
       </c>
@@ -11342,16 +11328,16 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -11368,12 +11354,12 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>626</v>
+        <v>785</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -11391,26 +11377,26 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
+        <v>776</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>777</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>15</v>
@@ -11419,7 +11405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -11430,7 +11416,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>15</v>
@@ -11439,7 +11425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -11456,15 +11442,15 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -11473,7 +11459,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -11487,7 +11473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>325</v>
       </c>
@@ -11507,7 +11493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -11521,7 +11507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -11532,7 +11518,7 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>16</v>
@@ -11541,12 +11527,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -11555,12 +11541,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
@@ -11569,7 +11555,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -11583,12 +11569,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>16</v>
@@ -11597,12 +11583,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>16</v>
@@ -11611,7 +11597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>40</v>
       </c>
@@ -11625,7 +11611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -11636,7 +11622,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -11645,7 +11631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -11656,10 +11642,10 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>341</v>
       </c>
@@ -11670,7 +11656,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>15</v>
@@ -11682,28 +11668,28 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C48">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -11720,21 +11706,22 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A16 F1:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -11754,7 +11741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11775,7 +11762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11796,7 +11783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11817,7 +11804,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11838,7 +11825,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11859,7 +11846,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11880,7 +11867,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11902,7 +11889,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11924,7 +11911,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11946,7 +11933,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11968,7 +11955,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11990,7 +11977,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -12011,7 +11998,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12032,7 +12019,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12053,7 +12040,7 @@
         <v>0.3902439024390244</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12074,7 +12061,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -12099,7 +12086,7 @@
         <v>0.38266384778012685</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -12146,21 +12133,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12180,7 +12167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -12200,7 +12187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -12233,21 +12220,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12267,7 +12254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -12287,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>85</v>
       </c>
@@ -12301,7 +12288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -12321,7 +12308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -12335,7 +12322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -12349,7 +12336,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -12369,7 +12356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12383,7 +12370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12397,7 +12384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -12411,7 +12398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -12425,7 +12412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -12445,7 +12432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12459,7 +12446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -12473,7 +12460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -12487,7 +12474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -12501,7 +12488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -12521,7 +12508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -12541,7 +12528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12555,7 +12542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -12575,7 +12562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -12595,7 +12582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12609,7 +12596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12623,7 +12610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12637,7 +12624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -12651,7 +12638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -12671,7 +12658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12699,21 +12686,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12733,7 +12720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -12753,7 +12740,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -12773,7 +12760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12787,7 +12774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12801,7 +12788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -12815,7 +12802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -12829,7 +12816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -12849,7 +12836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -12863,7 +12850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -12877,7 +12864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -12891,7 +12878,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -12911,7 +12898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12925,7 +12912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -12945,7 +12932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12959,7 +12946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -12979,7 +12966,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -12999,7 +12986,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -13013,7 +13000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>148</v>
       </c>
@@ -13027,7 +13014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -13047,7 +13034,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -13067,7 +13054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13081,7 +13068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>158</v>
       </c>
@@ -13101,7 +13088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13115,7 +13102,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -13135,7 +13122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -13149,7 +13136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13169,7 +13156,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>172</v>
       </c>
@@ -13183,7 +13170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>173</v>
       </c>
@@ -13197,7 +13184,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>21</v>
       </c>
@@ -13211,7 +13198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>22</v>
       </c>
@@ -13225,7 +13212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -13239,7 +13226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -13259,7 +13246,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13273,7 +13260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -13293,7 +13280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>172</v>
       </c>
@@ -13307,7 +13294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>173</v>
       </c>
@@ -13321,7 +13308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -13341,7 +13328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -13361,7 +13348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13375,7 +13362,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -13389,7 +13376,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -13403,7 +13390,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -13417,7 +13404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -13437,7 +13424,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13451,7 +13438,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -13465,7 +13452,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -13485,7 +13472,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -13513,21 +13500,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13547,7 +13534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -13567,7 +13554,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -13587,7 +13574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -13601,7 +13588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>148</v>
       </c>
@@ -13615,7 +13602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13629,7 +13616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13643,7 +13630,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -13657,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -13671,7 +13658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -13691,7 +13678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -13711,7 +13698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -13731,7 +13718,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -13751,7 +13738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -13765,7 +13752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -13779,7 +13766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -13793,7 +13780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -13813,7 +13800,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -13827,7 +13814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -13841,7 +13828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -13855,7 +13842,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -13869,7 +13856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -13883,7 +13870,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -13897,7 +13884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -13917,7 +13904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -13931,7 +13918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>148</v>
       </c>
@@ -13945,7 +13932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -13959,9 +13946,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -13979,7 +13966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -13993,7 +13980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -14007,7 +13994,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -14027,7 +14014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -14047,7 +14034,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -14067,7 +14054,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14081,7 +14068,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14095,7 +14082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -14115,7 +14102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -14129,7 +14116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -14149,7 +14136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14163,7 +14150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14177,7 +14164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -14197,7 +14184,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -14217,7 +14204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -14237,7 +14224,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -14251,7 +14238,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -14271,7 +14258,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -14285,7 +14272,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -14299,7 +14286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -14319,7 +14306,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14339,7 +14326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -14353,7 +14340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -14373,7 +14360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -14387,7 +14374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14407,7 +14394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14427,7 +14414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>85</v>
       </c>
@@ -14441,7 +14428,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>148</v>
       </c>
@@ -14455,7 +14442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -14475,7 +14462,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -14489,7 +14476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -14509,7 +14496,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -14523,7 +14510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>280</v>
       </c>
@@ -14543,7 +14530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14557,7 +14544,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14585,21 +14572,21 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14619,7 +14606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -14639,7 +14626,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14653,7 +14640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14667,7 +14654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14681,7 +14668,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14701,7 +14688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -14715,7 +14702,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -14735,7 +14722,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -14755,7 +14742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -14769,7 +14756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -14783,7 +14770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -14797,7 +14784,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>299</v>
       </c>
@@ -14817,7 +14804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14831,7 +14818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -14851,7 +14838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -14871,7 +14858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>304</v>
       </c>
@@ -14891,7 +14878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>309</v>
       </c>
@@ -14911,7 +14898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14925,7 +14912,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -14945,7 +14932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>85</v>
       </c>
@@ -14959,7 +14946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>318</v>
       </c>
@@ -14979,7 +14966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>85</v>
       </c>
@@ -14993,7 +14980,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -15013,7 +15000,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -15027,7 +15014,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -15047,7 +15034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>325</v>
       </c>
@@ -15067,7 +15054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>85</v>
       </c>
@@ -15081,7 +15068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -15101,7 +15088,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15115,7 +15102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -15129,7 +15116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -15149,7 +15136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15163,7 +15150,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -15183,7 +15170,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -15197,7 +15184,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15211,7 +15198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>334</v>
       </c>
@@ -15231,7 +15218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>85</v>
       </c>
@@ -15245,7 +15232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>22</v>
       </c>
@@ -15259,7 +15246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -15273,7 +15260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15287,7 +15274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -15307,7 +15294,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15321,7 +15308,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>341</v>
       </c>
@@ -15341,7 +15328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -15355,7 +15342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -15369,7 +15356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -15383,7 +15370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>346</v>
       </c>
@@ -15403,7 +15390,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15417,7 +15404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15437,7 +15424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -15451,7 +15438,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>350</v>
       </c>
@@ -15471,7 +15458,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -15485,7 +15472,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>354</v>
       </c>
@@ -15505,7 +15492,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -15519,7 +15506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -15539,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>274</v>
       </c>
@@ -15559,7 +15546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -15587,21 +15574,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15621,7 +15608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -15641,7 +15628,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15655,7 +15642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15669,7 +15656,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -15683,7 +15670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -15703,7 +15690,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -15717,7 +15704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -15731,7 +15718,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -15751,7 +15738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -15765,7 +15752,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -15785,7 +15772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15799,7 +15786,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -15819,7 +15806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15833,7 +15820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15847,7 +15834,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>376</v>
       </c>
@@ -15867,7 +15854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -15881,7 +15868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -15895,7 +15882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -15915,7 +15902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>85</v>
       </c>
@@ -15929,7 +15916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>148</v>
       </c>
@@ -15943,7 +15930,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -15957,7 +15944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -15971,7 +15958,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>216</v>
       </c>
@@ -15991,7 +15978,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -16011,7 +15998,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -16031,7 +16018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -16051,7 +16038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>325</v>
       </c>
@@ -16071,7 +16058,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16085,7 +16072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16099,7 +16086,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -16119,7 +16106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -16133,7 +16120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>341</v>
       </c>
@@ -16153,7 +16140,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16173,7 +16160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -16187,7 +16174,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>334</v>
       </c>
@@ -16207,7 +16194,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -16227,7 +16214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -16241,7 +16228,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -16255,7 +16242,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -16275,7 +16262,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -16289,7 +16276,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -16309,7 +16296,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -16329,7 +16316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -16343,7 +16330,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16357,7 +16344,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -16377,7 +16364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>412</v>
       </c>
@@ -16397,7 +16384,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -16411,7 +16398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -16425,7 +16412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>414</v>
       </c>
@@ -16445,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -16465,7 +16452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>280</v>
       </c>
@@ -16485,7 +16472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -16499,7 +16486,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -16513,7 +16500,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -16527,7 +16514,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>419</v>
       </c>
@@ -16547,7 +16534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16561,7 +16548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>422</v>
       </c>
@@ -16581,7 +16568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -16595,7 +16582,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>2</v>
       </c>
@@ -16609,7 +16596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -16623,7 +16610,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>40</v>
       </c>
@@ -16651,21 +16638,21 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -16685,7 +16672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -16705,7 +16692,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16719,7 +16706,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16733,7 +16720,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16747,7 +16734,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -16761,7 +16748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -16781,7 +16768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -16795,7 +16782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>431</v>
       </c>
@@ -16815,7 +16802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16829,7 +16816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -16849,7 +16836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -16869,7 +16856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -16889,7 +16876,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -16903,7 +16890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -16923,7 +16910,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -16937,7 +16924,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -16957,7 +16944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -16971,7 +16958,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -16991,9 +16978,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -17011,7 +16998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17025,7 +17012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17039,7 +17026,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>441</v>
       </c>
@@ -17059,7 +17046,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>303</v>
       </c>
@@ -17079,7 +17066,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -17099,7 +17086,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -17113,7 +17100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -17133,7 +17120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>22</v>
       </c>
@@ -17147,7 +17134,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -17167,7 +17154,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17181,7 +17168,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -17195,7 +17182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>325</v>
       </c>
@@ -17215,7 +17202,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -17235,7 +17222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -17249,7 +17236,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -17260,7 +17247,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
@@ -17269,7 +17256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -17283,7 +17270,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -17297,7 +17284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -17317,7 +17304,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -17337,7 +17324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -17357,7 +17344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17371,7 +17358,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17385,7 +17372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -17405,7 +17392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -17419,7 +17406,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17420,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -17453,7 +17440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17467,7 +17454,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -17481,7 +17468,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -17501,7 +17488,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>22</v>
       </c>
@@ -17515,7 +17502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -17529,7 +17516,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>350</v>
       </c>
@@ -17549,7 +17536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -17563,7 +17550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -17577,7 +17564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17591,7 +17578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -17605,7 +17592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>474</v>
       </c>
@@ -17625,7 +17612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -17639,7 +17626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>412</v>
       </c>
@@ -17659,7 +17646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -17673,7 +17660,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -17687,7 +17674,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -17701,7 +17688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -17721,7 +17708,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>3</v>
       </c>
@@ -17735,7 +17722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -17749,7 +17736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -17763,7 +17750,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>40</v>
       </c>
@@ -17777,7 +17764,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>483</v>
       </c>
@@ -17797,7 +17784,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>274</v>
       </c>
@@ -17817,7 +17804,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>280</v>
       </c>
@@ -17837,7 +17824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>3</v>
       </c>
@@ -17851,7 +17838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -17865,7 +17852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -17879,7 +17866,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>40</v>
       </c>
@@ -17906,21 +17893,21 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17940,7 +17927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -17960,7 +17947,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17974,7 +17961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -17994,7 +17981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -18014,7 +18001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -18028,7 +18015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -18048,7 +18035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>367</v>
       </c>
@@ -18068,7 +18055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -18082,7 +18069,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>492</v>
       </c>
@@ -18102,7 +18089,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -18122,7 +18109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -18136,7 +18123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18150,7 +18137,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -18170,7 +18157,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -18190,9 +18177,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -18210,7 +18197,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -18224,7 +18211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>304</v>
       </c>
@@ -18244,7 +18231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -18258,7 +18245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -18272,7 +18259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>441</v>
       </c>
@@ -18292,7 +18279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -18306,7 +18293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -18320,7 +18307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -18334,7 +18321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -18348,7 +18335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -18368,7 +18355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -18382,7 +18369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -18396,7 +18383,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -18410,7 +18397,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -18430,7 +18417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -18444,7 +18431,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18458,7 +18445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -18472,7 +18459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -18492,7 +18479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18506,7 +18493,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -18520,7 +18507,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -18534,7 +18521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>325</v>
       </c>
@@ -18554,7 +18541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -18568,7 +18555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -18582,7 +18569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -18596,7 +18583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -18616,7 +18603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -18630,7 +18617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -18644,7 +18631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -18658,7 +18645,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -18672,7 +18659,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -18686,7 +18673,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>40</v>
       </c>
@@ -18700,7 +18687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -18720,7 +18707,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>334</v>
       </c>
@@ -18740,7 +18727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18754,7 +18741,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -18774,7 +18761,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -18794,7 +18781,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -18808,7 +18795,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -18822,7 +18809,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -18842,7 +18829,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -18876,7 +18863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>22</v>
       </c>
@@ -18890,7 +18877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -18904,7 +18891,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18918,7 +18905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>538</v>
       </c>
@@ -18938,7 +18925,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -18958,7 +18945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>3</v>
       </c>
@@ -18972,7 +18959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -18986,7 +18973,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -19000,7 +18987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -19020,7 +19007,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>545</v>
       </c>
@@ -19040,7 +19027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -19054,7 +19041,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>483</v>
       </c>
@@ -19074,7 +19061,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -19088,7 +19075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19102,7 +19089,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>274</v>
       </c>
@@ -19122,7 +19109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -19136,7 +19123,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -19150,7 +19137,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>554</v>
       </c>
@@ -19170,7 +19157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>555</v>
       </c>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8081" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7C107B-6AB2-49C1-BCB8-AD8AD838A8EB}"/>
+  <xr:revisionPtr revIDLastSave="8082" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C2CD67-3AA8-42F0-B1C9-CC39085388CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="2011" sheetId="17" r:id="rId13"/>
     <sheet name="2012" sheetId="18" r:id="rId14"/>
     <sheet name="2013" sheetId="19" r:id="rId15"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
+    <sheet name="Stats" sheetId="1" r:id="rId16"/>
     <sheet name="Wins-Losses" sheetId="20" r:id="rId17"/>
     <sheet name="Winning Percentile Range" sheetId="21" r:id="rId18"/>
   </sheets>
@@ -2702,7 +2702,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2723,7 +2723,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2777,7 +2777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
+              <c:f>Stats!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2840,7 +2840,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2861,7 +2861,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2915,7 +2915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
+              <c:f>Stats!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3359,7 +3359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3408,7 +3408,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3462,7 +3462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
+              <c:f>Stats!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4924,7 +4924,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E3CFA0FE-9C32-45BD-AF6D-033E88FE544E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4935,8 +4935,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5300,7 +5300,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -5387,7 +5387,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -6375,7 +6375,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -7519,7 +7519,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -8490,7 +8490,7 @@
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -9895,7 +9895,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -11017,7 +11017,7 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -11706,7 +11706,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -12133,7 +12133,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -12220,7 +12220,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -12686,7 +12686,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -13500,7 +13500,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -14572,7 +14572,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -15574,7 +15574,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -16638,7 +16638,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -17893,7 +17893,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8085" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA8A540-D65A-4926-A126-BE9A47D475F9}"/>
+  <xr:revisionPtr revIDLastSave="8086" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFD724D-12AD-4FBB-AFE8-363904BE6405}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -5293,20 +5293,20 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
@@ -5385,20 +5385,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>209</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>373</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>693</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>316</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>322</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>40</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>338</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>542</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>480</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -6373,20 +6373,20 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>485</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>376</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>607</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>40</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>220</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>693</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>781</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>22</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>322</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>338</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>428</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>471</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>411</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>347</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>552</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>40</v>
       </c>
@@ -7517,20 +7517,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>376</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>693</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>781</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>659</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>22</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7912,12 +7912,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>670</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>338</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>679</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>428</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>411</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -8493,20 +8493,20 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>684</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>376</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>373</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>687</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>220</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>693</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>695</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>781</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>316</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>146</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>40</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>322</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>40</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>338</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>22</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>409</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>3</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>428</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>3</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>3</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>411</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>2</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>0</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>40</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>542</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>2</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>551</v>
       </c>
@@ -9898,20 +9898,20 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>376</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -10309,12 +10309,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>693</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>781</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>739</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>322</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>670</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>338</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>22</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>351</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>428</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>471</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -11025,20 +11025,20 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>764</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>376</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>607</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>302</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>781</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11412,12 +11412,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>22</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>322</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>40</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>338</v>
       </c>
@@ -11719,21 +11719,21 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0.3902439024390244</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>0.38266384778012685</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>0.38266384778012691</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
@@ -12151,20 +12151,20 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
@@ -12243,20 +12243,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>85</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12709,20 +12709,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>147</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>170</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>171</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>21</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>22</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>170</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>171</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>183</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -13523,20 +13523,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>147</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>227</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>147</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>693</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>236</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>251</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>85</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>147</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14595,20 +14595,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>297</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>85</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>85</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>322</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>85</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>331</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>85</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>22</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>338</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>343</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>347</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>351</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>354</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -15597,20 +15597,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>364</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>373</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>376</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>85</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>147</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -16000,12 +16000,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>220</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>322</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>338</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>331</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>407</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>409</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>411</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>278</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>416</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>419</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>2</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>40</v>
       </c>
@@ -16666,20 +16666,20 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>428</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>376</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>373</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>693</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17053,12 +17053,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>438</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>301</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>22</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>247</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>338</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -17316,7 +17316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>331</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>22</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>347</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>471</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>409</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>411</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>3</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>40</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>480</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>278</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>3</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>40</v>
       </c>
@@ -17926,20 +17926,20 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>485</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>428</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>364</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>489</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>693</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>302</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>438</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>247</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>322</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>40</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>331</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>22</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>3</v>
       </c>
@@ -18991,7 +18991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>542</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>480</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>551</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>552</v>
       </c>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8086" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFD724D-12AD-4FBB-AFE8-363904BE6405}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4900,7 +4900,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2C4C579C-D1B5-441D-B68A-5E8A35AB8CD2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4912,7 +4912,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E3CFA0FE-9C32-45BD-AF6D-033E88FE544E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5292,8 +5292,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5384,8 +5384,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6373,7 +6373,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7516,8 +7516,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8492,8 +8492,8 @@
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9897,8 +9897,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11024,8 +11024,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11718,8 +11718,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12150,8 +12150,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12242,8 +12242,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12708,8 +12708,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13522,8 +13522,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14594,8 +14594,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15596,8 +15596,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16665,8 +16665,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17925,8 +17925,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8089" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7120E1D7-B14F-4C5C-88BE-421262D1C7AE}"/>
+  <xr:revisionPtr revIDLastSave="8090" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D52A64F-1BB0-4AAA-A65E-4C35A382D782}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -5281,17 +5281,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -5373,17 +5373,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>688</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>234</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>40</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>424</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>538</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -6361,17 +6361,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>602</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>40</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>688</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>776</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>22</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>318</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>424</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>407</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>343</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>548</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>40</v>
       </c>
@@ -7505,17 +7505,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>688</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>776</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>22</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7897,12 +7897,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>318</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>665</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>334</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>674</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>424</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>467</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>407</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -8481,17 +8481,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>679</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>682</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>688</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>690</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>776</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>312</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>40</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>40</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>22</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>405</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>3</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>424</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>3</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>3</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>407</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>40</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>538</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>2</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>547</v>
       </c>
@@ -9886,17 +9886,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -10294,12 +10294,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>688</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>776</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>734</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>318</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>665</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>22</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>347</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>424</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>467</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>538</v>
       </c>
@@ -11013,17 +11013,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>759</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>602</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>299</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>776</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11397,12 +11397,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>22</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>40</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>334</v>
       </c>
@@ -11707,18 +11707,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>0.3902439024390244</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>0.38266384778012685</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>0.42381959126145174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -12139,17 +12139,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -12231,17 +12231,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12697,17 +12697,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>144</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>167</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>168</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>21</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>22</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>167</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>168</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -13511,17 +13511,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>144</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>83</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>83</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>144</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>688</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>83</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>83</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>144</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>83</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>269</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14583,17 +14583,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>299</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>312</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>83</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>318</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>83</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>327</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>83</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>22</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>334</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>339</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>343</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>350</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -15585,17 +15585,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>83</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -15985,12 +15985,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>327</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>403</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>405</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>407</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>269</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>412</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>415</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>2</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>40</v>
       </c>
@@ -16654,17 +16654,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>424</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>688</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17038,12 +17038,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>434</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>22</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>318</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>327</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>22</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>405</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>407</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>3</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>40</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>476</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>269</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>3</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>40</v>
       </c>
@@ -17914,17 +17914,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>688</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>299</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>434</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>318</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>40</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>22</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>531</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>3</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>538</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>476</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>547</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>548</v>
       </c>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8090" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D52A64F-1BB0-4AAA-A65E-4C35A382D782}"/>
+  <xr:revisionPtr revIDLastSave="8091" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5915FB8-62C4-4B99-BE88-5FC39EDB340E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4971,10 +4971,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5281,17 +5277,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -5331,7 +5327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -5351,7 +5347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -5373,17 +5369,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5437,7 +5433,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -5457,7 +5453,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -5477,7 +5473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5491,7 +5487,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5505,7 +5501,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -5525,7 +5521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -5545,7 +5541,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -5565,7 +5561,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5575,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5593,7 +5589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5613,7 +5609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>688</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -5667,7 +5663,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>234</v>
       </c>
@@ -5687,7 +5683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -5701,7 +5697,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -5721,7 +5717,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -5735,7 +5731,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -5755,7 +5751,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -5815,7 +5811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -5877,7 +5873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -5891,7 +5887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5911,7 +5907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -5925,7 +5921,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>40</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -5987,7 +5983,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -6001,7 +5997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6015,7 +6011,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6029,7 +6025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -6083,7 +6079,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -6097,7 +6093,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -6117,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -6131,7 +6127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6145,7 +6141,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>424</v>
       </c>
@@ -6179,7 +6175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -6227,7 +6223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>538</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -6267,7 +6263,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -6281,7 +6277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -6301,7 +6297,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -6315,7 +6311,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -6329,7 +6325,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -6361,17 +6357,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6391,7 +6387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -6411,7 +6407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6425,7 +6421,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6439,7 +6435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6453,7 +6449,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -6487,7 +6483,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -6507,7 +6503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -6521,7 +6517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -6549,7 +6545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -6563,7 +6559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -6583,7 +6579,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6597,7 +6593,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6611,7 +6607,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>602</v>
       </c>
@@ -6631,7 +6627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6645,7 +6641,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>40</v>
       </c>
@@ -6687,7 +6683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -6707,7 +6703,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -6747,7 +6743,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>688</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -6781,7 +6777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -6795,7 +6791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -6809,7 +6805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -6829,7 +6825,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6843,7 +6839,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6857,7 +6853,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -6877,7 +6873,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>776</v>
       </c>
@@ -6911,7 +6907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -6931,7 +6927,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>22</v>
       </c>
@@ -6945,7 +6941,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>318</v>
       </c>
@@ -6965,7 +6961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -6979,7 +6975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7007,7 +7003,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -7027,7 +7023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -7041,7 +7037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7103,7 +7099,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -7131,7 +7127,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7171,7 +7167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7191,7 +7187,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -7239,7 +7235,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>424</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7287,7 +7283,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -7321,7 +7317,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -7349,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -7363,7 +7359,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -7377,7 +7373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>407</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -7425,7 +7421,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>343</v>
       </c>
@@ -7445,7 +7441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>548</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -7473,7 +7469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>40</v>
       </c>
@@ -7505,17 +7501,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -7555,7 +7551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -7569,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -7603,7 +7599,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7617,7 +7613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7631,7 +7627,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -7651,7 +7647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7665,7 +7661,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7679,7 +7675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7699,7 +7695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7713,7 +7709,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7727,7 +7723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7741,7 +7737,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7755,7 +7751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>688</v>
       </c>
@@ -7775,7 +7771,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -7795,7 +7791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>776</v>
       </c>
@@ -7815,7 +7811,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7829,7 +7825,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -7869,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>22</v>
       </c>
@@ -7883,7 +7879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7897,12 +7893,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>318</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7936,7 +7932,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7950,7 +7946,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7964,7 +7960,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -7984,7 +7980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7998,7 +7994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8012,7 +8008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -8046,7 +8042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -8060,7 +8056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>665</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>334</v>
       </c>
@@ -8114,7 +8110,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -8128,7 +8124,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -8142,7 +8138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -8156,7 +8152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -8176,7 +8172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -8218,7 +8214,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8262,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8286,7 +8282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -8300,7 +8296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>674</v>
       </c>
@@ -8320,7 +8316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -8334,7 +8330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>424</v>
       </c>
@@ -8354,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8368,7 +8364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8382,7 +8378,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>467</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>407</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -8481,17 +8477,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8511,7 +8507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -8531,7 +8527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8545,7 +8541,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8559,7 +8555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8573,7 +8569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>679</v>
       </c>
@@ -8593,7 +8589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8607,7 +8603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8621,7 +8617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -8641,7 +8637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -8655,7 +8651,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -8675,7 +8671,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8689,7 +8685,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8703,7 +8699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -8723,7 +8719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8737,7 +8733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8751,7 +8747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +8761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>682</v>
       </c>
@@ -8785,7 +8781,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8813,7 +8809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -8833,7 +8829,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8847,7 +8843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8861,7 +8857,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8875,7 +8871,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +8885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -8923,7 +8919,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>688</v>
       </c>
@@ -8971,7 +8967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -8991,7 +8987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -9005,7 +9001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>690</v>
       </c>
@@ -9025,7 +9021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>776</v>
       </c>
@@ -9045,7 +9041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9059,7 +9055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>312</v>
       </c>
@@ -9079,7 +9075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9093,7 +9089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -9113,7 +9109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9127,7 +9123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -9141,7 +9137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -9155,7 +9151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>40</v>
       </c>
@@ -9169,7 +9165,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -9189,7 +9185,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -9203,7 +9199,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -9217,7 +9213,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -9231,7 +9227,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -9245,7 +9241,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -9259,7 +9255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -9279,7 +9275,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9293,7 +9289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -9307,7 +9303,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -9321,7 +9317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9335,7 +9331,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -9355,7 +9351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -9369,7 +9365,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -9383,7 +9379,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -9397,7 +9393,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -9411,7 +9407,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -9431,7 +9427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9441,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -9459,7 +9455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>40</v>
       </c>
@@ -9473,7 +9469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -9493,7 +9489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -9513,7 +9509,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -9527,7 +9523,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9547,7 +9543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9557,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -9575,7 +9571,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>22</v>
       </c>
@@ -9609,7 +9605,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>405</v>
       </c>
@@ -9629,7 +9625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>3</v>
       </c>
@@ -9643,7 +9639,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>424</v>
       </c>
@@ -9663,7 +9659,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>3</v>
       </c>
@@ -9677,7 +9673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -9711,7 +9707,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -9725,7 +9721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>3</v>
       </c>
@@ -9739,7 +9735,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>407</v>
       </c>
@@ -9759,7 +9755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -9773,7 +9769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +9797,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>40</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>538</v>
       </c>
@@ -9835,7 +9831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>2</v>
       </c>
@@ -9849,7 +9845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>547</v>
       </c>
@@ -9886,17 +9882,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9916,7 +9912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -9936,7 +9932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9950,7 +9946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9964,7 +9960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9998,7 +9994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10012,7 +10008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -10032,7 +10028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -10074,7 +10070,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -10094,7 +10090,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10108,7 +10104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10118,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10136,7 +10132,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -10156,7 +10152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -10176,7 +10172,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +10186,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -10204,7 +10200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -10218,7 +10214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -10238,7 +10234,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10252,7 +10248,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10280,7 +10276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -10294,12 +10290,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>688</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -10353,7 +10349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>776</v>
       </c>
@@ -10387,7 +10383,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>734</v>
       </c>
@@ -10427,7 +10423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -10447,7 +10443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -10461,7 +10457,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>318</v>
       </c>
@@ -10481,7 +10477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -10495,7 +10491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -10509,7 +10505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -10523,7 +10519,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -10543,7 +10539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -10557,7 +10553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10577,7 +10573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -10591,7 +10587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>665</v>
       </c>
@@ -10611,7 +10607,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10625,7 +10621,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10639,7 +10635,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -10653,7 +10649,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10673,7 +10669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -10687,7 +10683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -10707,7 +10703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -10741,7 +10737,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +10751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -10775,7 +10771,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>22</v>
       </c>
@@ -10789,7 +10785,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10803,7 +10799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10817,7 +10813,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10831,7 +10827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>347</v>
       </c>
@@ -10851,7 +10847,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>424</v>
       </c>
@@ -10871,7 +10867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -10885,7 +10881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -10899,7 +10895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>467</v>
       </c>
@@ -10919,7 +10915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -10933,7 +10929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -10961,7 +10957,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -10975,7 +10971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>538</v>
       </c>
@@ -11009,21 +11005,21 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -11043,7 +11039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>759</v>
       </c>
@@ -11063,7 +11059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11077,7 +11073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11091,7 +11087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -11111,7 +11107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -11125,7 +11121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -11139,7 +11135,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -11159,7 +11155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -11193,7 +11189,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11207,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -11227,7 +11223,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -11241,7 +11237,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -11261,7 +11257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11275,7 +11271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11289,7 +11285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -11309,7 +11305,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>602</v>
       </c>
@@ -11329,7 +11325,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>299</v>
       </c>
@@ -11349,7 +11345,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>776</v>
       </c>
@@ -11369,7 +11365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11383,7 +11379,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11397,12 +11393,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -11422,7 +11418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -11442,7 +11438,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>22</v>
       </c>
@@ -11456,7 +11452,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -11470,7 +11466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -11504,7 +11500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -11538,7 +11534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11552,7 +11548,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -11566,7 +11562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -11580,7 +11576,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -11594,7 +11590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>40</v>
       </c>
@@ -11608,7 +11604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -11628,7 +11624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>334</v>
       </c>
@@ -11707,18 +11703,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -11738,7 +11734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11759,7 +11755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11780,7 +11776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11801,7 +11797,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11822,7 +11818,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11843,7 +11839,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11864,7 +11860,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11886,7 +11882,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11908,7 +11904,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11930,7 +11926,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11952,7 +11948,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11974,7 +11970,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12016,7 +12012,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12037,7 +12033,7 @@
         <v>0.3902439024390244</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -12083,7 +12079,7 @@
         <v>0.38266384778012685</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -12108,7 +12104,7 @@
         <v>0.42381959126145174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -12139,17 +12135,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12169,7 +12165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -12189,7 +12185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -12209,7 +12205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -12231,17 +12227,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12261,7 +12257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -12281,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -12315,7 +12311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -12329,7 +12325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -12363,7 +12359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12377,7 +12373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12391,7 +12387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -12405,7 +12401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12439,7 +12435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12453,7 +12449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -12481,7 +12477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -12515,7 +12511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -12535,7 +12531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12549,7 +12545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -12569,7 +12565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -12589,7 +12585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12603,7 +12599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12617,7 +12613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12631,7 +12627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -12645,7 +12641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -12665,7 +12661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12697,17 +12693,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12727,7 +12723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -12747,7 +12743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -12767,7 +12763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12781,7 +12777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12795,7 +12791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -12823,7 +12819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -12843,7 +12839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -12857,7 +12853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -12871,7 +12867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -12885,7 +12881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -12905,7 +12901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12919,7 +12915,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12939,7 +12935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12953,7 +12949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -12973,7 +12969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>144</v>
       </c>
@@ -13021,7 +13017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -13041,7 +13037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -13061,7 +13057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13075,7 +13071,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -13095,7 +13091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13109,7 +13105,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -13129,7 +13125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13163,7 +13159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>167</v>
       </c>
@@ -13177,7 +13173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>168</v>
       </c>
@@ -13191,7 +13187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>21</v>
       </c>
@@ -13205,7 +13201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>22</v>
       </c>
@@ -13219,7 +13215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -13233,7 +13229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -13253,7 +13249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13267,7 +13263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -13287,7 +13283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>167</v>
       </c>
@@ -13301,7 +13297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>168</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -13335,7 +13331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -13355,7 +13351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13369,7 +13365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -13383,7 +13379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -13397,7 +13393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -13411,7 +13407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -13431,7 +13427,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13445,7 +13441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -13459,7 +13455,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -13479,7 +13475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -13511,17 +13507,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13541,7 +13537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -13561,7 +13557,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -13581,7 +13577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -13595,7 +13591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>144</v>
       </c>
@@ -13609,7 +13605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13623,7 +13619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13637,7 +13633,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -13651,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -13665,7 +13661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -13685,7 +13681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -13705,7 +13701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -13725,7 +13721,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -13745,7 +13741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>83</v>
       </c>
@@ -13759,7 +13755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -13773,7 +13769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -13787,7 +13783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -13807,7 +13803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -13821,7 +13817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -13835,7 +13831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -13849,7 +13845,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -13863,7 +13859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -13877,7 +13873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -13891,7 +13887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -13911,7 +13907,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>83</v>
       </c>
@@ -13925,7 +13921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>144</v>
       </c>
@@ -13939,7 +13935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -13953,7 +13949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>688</v>
       </c>
@@ -13973,7 +13969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>83</v>
       </c>
@@ -13987,7 +13983,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -14001,7 +13997,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -14021,7 +14017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -14041,7 +14037,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -14061,7 +14057,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14075,7 +14071,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14089,7 +14085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -14109,7 +14105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -14123,7 +14119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -14143,7 +14139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14157,7 +14153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14171,7 +14167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -14191,7 +14187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -14211,7 +14207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -14231,7 +14227,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -14245,7 +14241,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -14279,7 +14275,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -14293,7 +14289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -14313,7 +14309,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14333,7 +14329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -14347,7 +14343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -14367,7 +14363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>83</v>
       </c>
@@ -14381,7 +14377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14401,7 +14397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14421,7 +14417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -14435,7 +14431,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>144</v>
       </c>
@@ -14449,7 +14445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -14469,7 +14465,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>83</v>
       </c>
@@ -14483,7 +14479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>269</v>
       </c>
@@ -14503,7 +14499,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -14517,7 +14513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14537,7 +14533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14551,7 +14547,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14583,17 +14579,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14613,7 +14609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -14633,7 +14629,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14647,7 +14643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14661,7 +14657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14675,7 +14671,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -14695,7 +14691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -14709,7 +14705,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -14729,7 +14725,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -14749,7 +14745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -14763,7 +14759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -14777,7 +14773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -14791,7 +14787,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -14811,7 +14807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14825,7 +14821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -14845,7 +14841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -14865,7 +14861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>299</v>
       </c>
@@ -14885,7 +14881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -14905,7 +14901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14919,7 +14915,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -14939,7 +14935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -14953,7 +14949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>312</v>
       </c>
@@ -14973,7 +14969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>83</v>
       </c>
@@ -14987,7 +14983,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -15007,7 +15003,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -15021,7 +15017,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -15041,7 +15037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>318</v>
       </c>
@@ -15061,7 +15057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>83</v>
       </c>
@@ -15075,7 +15071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -15095,7 +15091,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15109,7 +15105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -15123,7 +15119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -15143,7 +15139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15157,7 +15153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -15177,7 +15173,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -15191,7 +15187,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15205,7 +15201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>327</v>
       </c>
@@ -15225,7 +15221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>83</v>
       </c>
@@ -15239,7 +15235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>22</v>
       </c>
@@ -15253,7 +15249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -15267,7 +15263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15281,7 +15277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -15301,7 +15297,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15315,7 +15311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>334</v>
       </c>
@@ -15335,7 +15331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -15349,7 +15345,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -15363,7 +15359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -15377,7 +15373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>339</v>
       </c>
@@ -15397,7 +15393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15411,7 +15407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15431,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -15445,7 +15441,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>343</v>
       </c>
@@ -15465,7 +15461,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -15479,7 +15475,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -15499,7 +15495,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -15513,7 +15509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>350</v>
       </c>
@@ -15533,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -15553,7 +15549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -15585,17 +15581,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15615,7 +15611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15649,7 +15645,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15663,7 +15659,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -15677,7 +15673,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -15697,7 +15693,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -15711,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -15725,7 +15721,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -15745,7 +15741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -15759,7 +15755,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -15779,7 +15775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15793,7 +15789,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -15813,7 +15809,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15827,7 +15823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15841,7 +15837,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -15861,7 +15857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -15875,7 +15871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -15889,7 +15885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -15909,7 +15905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>83</v>
       </c>
@@ -15923,7 +15919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -15937,7 +15933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -15951,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -15965,7 +15961,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -15985,12 +15981,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -16010,7 +16006,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -16030,7 +16026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -16050,7 +16046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -16070,7 +16066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16084,7 +16080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16098,7 +16094,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -16118,7 +16114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -16132,7 +16128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -16152,7 +16148,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16172,7 +16168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -16186,7 +16182,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>327</v>
       </c>
@@ -16206,7 +16202,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -16226,7 +16222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16236,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -16254,7 +16250,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -16274,7 +16270,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -16288,7 +16284,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -16308,7 +16304,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -16328,7 +16324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -16342,7 +16338,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16356,7 +16352,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>403</v>
       </c>
@@ -16376,7 +16372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>405</v>
       </c>
@@ -16396,7 +16392,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -16410,7 +16406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -16424,7 +16420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>407</v>
       </c>
@@ -16444,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>269</v>
       </c>
@@ -16464,7 +16460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -16484,7 +16480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -16498,7 +16494,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -16512,7 +16508,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -16526,7 +16522,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>412</v>
       </c>
@@ -16546,7 +16542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16560,7 +16556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>415</v>
       </c>
@@ -16580,7 +16576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -16594,7 +16590,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>2</v>
       </c>
@@ -16608,7 +16604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -16622,7 +16618,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>40</v>
       </c>
@@ -16654,17 +16650,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -16684,7 +16680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -16704,7 +16700,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16718,7 +16714,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16732,7 +16728,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16746,7 +16742,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -16760,7 +16756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -16780,7 +16776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -16794,7 +16790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>424</v>
       </c>
@@ -16814,7 +16810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16828,7 +16824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -16848,7 +16844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -16868,7 +16864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -16888,7 +16884,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -16902,7 +16898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -16922,7 +16918,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -16936,7 +16932,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -16956,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -16970,7 +16966,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -16990,7 +16986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>688</v>
       </c>
@@ -17010,7 +17006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17024,7 +17020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17038,12 +17034,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>434</v>
       </c>
@@ -17063,7 +17059,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -17083,7 +17079,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -17103,7 +17099,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -17117,7 +17113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>22</v>
       </c>
@@ -17151,7 +17147,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -17171,7 +17167,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17185,7 +17181,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -17199,7 +17195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>318</v>
       </c>
@@ -17219,7 +17215,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -17239,7 +17235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -17273,7 +17269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -17287,7 +17283,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -17301,7 +17297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -17321,7 +17317,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>327</v>
       </c>
@@ -17341,7 +17337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -17361,7 +17357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17375,7 +17371,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17389,7 +17385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -17409,7 +17405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -17423,7 +17419,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17437,7 +17433,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -17457,7 +17453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17471,7 +17467,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -17485,7 +17481,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -17505,7 +17501,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>22</v>
       </c>
@@ -17519,7 +17515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -17533,7 +17529,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -17553,7 +17549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -17567,7 +17563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -17581,7 +17577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17595,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -17609,7 +17605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -17629,7 +17625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -17643,7 +17639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>405</v>
       </c>
@@ -17663,7 +17659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -17677,7 +17673,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -17691,7 +17687,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -17705,7 +17701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>407</v>
       </c>
@@ -17725,7 +17721,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>3</v>
       </c>
@@ -17739,7 +17735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -17753,7 +17749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -17767,7 +17763,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>40</v>
       </c>
@@ -17781,7 +17777,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>476</v>
       </c>
@@ -17801,7 +17797,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>269</v>
       </c>
@@ -17821,7 +17817,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -17841,7 +17837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>3</v>
       </c>
@@ -17855,7 +17851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -17869,7 +17865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -17883,7 +17879,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>40</v>
       </c>
@@ -17914,17 +17910,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17944,7 +17940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -17964,7 +17960,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17978,7 +17974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -17998,7 +17994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -18018,7 +18014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -18032,7 +18028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -18052,7 +18048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -18072,7 +18068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -18086,7 +18082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -18106,7 +18102,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -18126,7 +18122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -18140,7 +18136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18154,7 +18150,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -18174,7 +18170,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -18194,7 +18190,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>688</v>
       </c>
@@ -18214,7 +18210,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -18228,7 +18224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>299</v>
       </c>
@@ -18248,7 +18244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -18262,7 +18258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -18276,7 +18272,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>434</v>
       </c>
@@ -18296,7 +18292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -18310,7 +18306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -18324,7 +18320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -18338,7 +18334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -18352,7 +18348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -18372,7 +18368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -18386,7 +18382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -18400,7 +18396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -18414,7 +18410,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -18434,7 +18430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -18448,7 +18444,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18462,7 +18458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -18476,7 +18472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -18496,7 +18492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18510,7 +18506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -18524,7 +18520,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -18538,7 +18534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>318</v>
       </c>
@@ -18558,7 +18554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -18572,7 +18568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -18586,7 +18582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -18600,7 +18596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -18620,7 +18616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -18634,7 +18630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -18648,7 +18644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -18662,7 +18658,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -18676,7 +18672,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -18690,7 +18686,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>40</v>
       </c>
@@ -18704,7 +18700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -18724,7 +18720,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -18744,7 +18740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18758,7 +18754,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -18778,7 +18774,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -18798,7 +18794,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -18812,7 +18808,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -18826,7 +18822,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -18846,7 +18842,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -18860,7 +18856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -18880,7 +18876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>22</v>
       </c>
@@ -18894,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -18908,7 +18904,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18922,7 +18918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>531</v>
       </c>
@@ -18942,7 +18938,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -18962,7 +18958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>3</v>
       </c>
@@ -18976,7 +18972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -18990,7 +18986,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -19004,7 +19000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -19024,7 +19020,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>538</v>
       </c>
@@ -19044,7 +19040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -19058,7 +19054,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>476</v>
       </c>
@@ -19078,7 +19074,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -19092,7 +19088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19106,7 +19102,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -19126,7 +19122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -19140,7 +19136,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -19154,7 +19150,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>547</v>
       </c>
@@ -19174,7 +19170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>548</v>
       </c>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8091" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5915FB8-62C4-4B99-BE88-5FC39EDB340E}"/>
+  <xr:revisionPtr revIDLastSave="8092" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E0C572-F2CE-4A9A-B9F1-381651B17B5B}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -5277,17 +5277,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -5369,17 +5369,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>688</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>234</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>40</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>424</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>538</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -6357,17 +6357,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>602</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>40</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>688</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>776</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>22</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>318</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>424</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>407</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>343</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>548</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>40</v>
       </c>
@@ -7501,17 +7501,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>688</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>776</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>22</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -7893,12 +7893,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>318</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>665</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>334</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>4</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>674</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>424</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>467</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>407</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -8477,17 +8477,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>593</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>679</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>682</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>688</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>690</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>776</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>312</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>40</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>4</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>40</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>40</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>22</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>405</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>3</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>424</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>3</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>2</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>3</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>407</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>2</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>0</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>40</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>538</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>2</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>547</v>
       </c>
@@ -9882,17 +9882,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -10290,12 +10290,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>688</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>776</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>734</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>318</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>665</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>40</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>2</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>22</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>347</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>424</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>467</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>538</v>
       </c>
@@ -11009,17 +11009,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>759</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>602</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>299</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>776</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11393,12 +11393,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>22</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>4</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>40</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>334</v>
       </c>
@@ -11703,18 +11703,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>0.3902439024390244</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>0.38266384778012685</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>0.42381959126145174</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -12135,17 +12135,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
@@ -12227,17 +12227,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -12693,17 +12693,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>144</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>167</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>168</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>21</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>22</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>167</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>168</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -13507,17 +13507,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>144</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>83</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>83</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>83</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>144</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>688</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>83</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>83</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>144</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>83</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>269</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14579,17 +14579,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>299</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>312</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>83</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>318</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>83</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>327</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>83</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>22</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>334</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>339</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>343</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>350</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -15581,17 +15581,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>83</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -15981,12 +15981,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>327</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>403</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>405</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>407</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>269</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>412</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>415</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>2</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>40</v>
       </c>
@@ -16650,17 +16650,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>424</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>688</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -17034,12 +17034,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>434</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>22</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>318</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>327</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>22</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>405</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>2</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>407</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>3</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>2</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>40</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>476</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>269</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>3</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>40</v>
       </c>
@@ -17910,17 +17910,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>211</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>688</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>299</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>434</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>318</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>40</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>22</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>4</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>531</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>3</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>538</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>476</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>2</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>0</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>547</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>548</v>
       </c>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8082" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706145C4-6237-4EA8-9057-3CB34D52CD5D}"/>
+  <xr:revisionPtr revIDLastSave="8090" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0CF46D-4655-4E68-969B-72DBC5B3F2AE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18315" yWindow="735" windowWidth="18885" windowHeight="15285" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="18315" yWindow="735" windowWidth="18885" windowHeight="15285" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="786">
   <si>
     <t>Semifinal</t>
   </si>
@@ -11019,10 +11019,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11227,7 +11227,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>503</v>
@@ -11241,431 +11241,445 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>564</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>216</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>735</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>660</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>660</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>536</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>222</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>514</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>610</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>774</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>304</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>575</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>785</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>511</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>776</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>776</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>654</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>147</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>778</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>107</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>523</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>780</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
+        <v>780</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>558</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>325</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
         <v>464</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>613</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>781</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>721</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>557</v>
+        <v>778</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>755</v>
+        <v>557</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>782</v>
+        <v>755</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>782</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>40</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>580</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>72</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>783</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>611</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>341</v>
       </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>700</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
         <v>282</v>
       </c>
     </row>
@@ -11677,25 +11691,25 @@
   <conditionalFormatting sqref="C10:C11">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17">
+  <conditionalFormatting sqref="C18">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C22">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="C41">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C46">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C48">
+  <conditionalFormatting sqref="C47:C49">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11710,7 +11724,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8090" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0CF46D-4655-4E68-969B-72DBC5B3F2AE}"/>
+  <xr:revisionPtr revIDLastSave="8092" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15516E3E-36D7-4FAB-9C82-5B0D43DF2AFE}"/>
   <bookViews>
-    <workbookView xWindow="18315" yWindow="735" windowWidth="18885" windowHeight="15285" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -4912,7 +4912,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2C4C579C-D1B5-441D-B68A-5E8A35AB8CD2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4924,7 +4924,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E3CFA0FE-9C32-45BD-AF6D-033E88FE544E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4998,14 +4998,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5043,7 +5039,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5149,7 +5145,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5291,7 +5287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5304,8 +5300,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,8 +5387,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6379,8 +6375,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7523,8 +7519,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8494,8 +8490,8 @@
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9899,8 +9895,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11022,7 +11018,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11724,18 +11720,18 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12151,8 +12147,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12238,8 +12234,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12704,8 +12700,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13518,8 +13514,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14590,8 +14586,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15592,8 +15588,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16656,8 +16652,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17911,8 +17907,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8092" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15516E3E-36D7-4FAB-9C82-5B0D43DF2AFE}"/>
+  <xr:revisionPtr revIDLastSave="8094" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5300540-5179-4C0B-940F-DBB5C3327400}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -1189,9 +1189,6 @@
     <t>6-1 7-5</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Galina Voskoboeva (KAZAKHSTAN)</t>
   </si>
   <si>
@@ -2408,6 +2405,9 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -5446,13 +5446,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -5500,13 +5500,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5514,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -5554,13 +5554,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -5588,13 +5588,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5602,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -5622,7 +5622,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>15</v>
@@ -5642,18 +5642,18 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5662,13 +5662,13 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>570</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5682,7 +5682,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
@@ -5710,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>571</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
         <v>572</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,13 +5730,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5744,13 +5744,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>15</v>
@@ -5784,13 +5784,13 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5804,13 +5804,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>15</v>
@@ -5872,7 +5872,7 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>16</v>
@@ -5886,7 +5886,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -5900,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>15</v>
@@ -5920,7 +5920,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>16</v>
@@ -5934,13 +5934,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5948,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -5976,7 +5976,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>15</v>
@@ -5996,13 +5996,13 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>16</v>
@@ -6024,13 +6024,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -6052,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,13 +6072,13 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6092,13 +6092,13 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>15</v>
@@ -6126,7 +6126,7 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -6140,7 +6140,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
@@ -6154,13 +6154,13 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6174,12 +6174,12 @@
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -6202,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>15</v>
@@ -6222,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>16</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -6256,18 +6256,18 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -6276,7 +6276,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -6310,13 +6310,13 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6324,13 +6324,13 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -6338,13 +6338,13 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
@@ -6411,16 +6411,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>600</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>601</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -6434,13 +6434,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>602</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6468,7 +6468,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -6496,13 +6496,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6516,7 +6516,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -6530,7 +6530,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -6544,13 +6544,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6583,7 +6583,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -6592,13 +6592,13 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6606,13 +6606,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,12 +6626,12 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -6654,7 +6654,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -6668,13 +6668,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
@@ -6696,7 +6696,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -6716,13 +6716,13 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>15</v>
@@ -6756,18 +6756,18 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6776,7 +6776,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -6804,7 +6804,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
@@ -6838,13 +6838,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6852,13 +6852,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6886,13 +6886,13 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6900,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>15</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -6920,7 +6920,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>15</v>
@@ -6940,13 +6940,13 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
+        <v>625</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
         <v>626</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -6988,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -7002,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -7016,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7036,7 +7036,7 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -7050,7 +7050,7 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -7064,13 +7064,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,13 +7084,13 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7098,7 +7098,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
@@ -7118,7 +7118,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7126,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7140,13 +7140,13 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>15</v>
@@ -7180,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>15</v>
@@ -7200,13 +7200,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7214,13 +7214,13 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7234,7 +7234,7 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>16</v>
@@ -7248,18 +7248,18 @@
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -7268,7 +7268,7 @@
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>16</v>
@@ -7282,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -7296,13 +7296,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
+        <v>641</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
         <v>642</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7321,7 +7321,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -7330,13 +7330,13 @@
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>16</v>
@@ -7358,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -7378,7 +7378,7 @@
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>15</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -7406,7 +7406,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
@@ -7420,7 +7420,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -7434,13 +7434,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -7451,10 +7451,10 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>16</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D90" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>16</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>16</v>
@@ -7496,13 +7496,13 @@
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -7525,7 +7525,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -7564,7 +7564,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -7592,18 +7592,18 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7612,7 +7612,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -7626,7 +7626,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -7640,13 +7640,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -7674,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -7688,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
@@ -7708,7 +7708,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -7722,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -7750,13 +7750,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -7784,13 +7784,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>15</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -7824,13 +7824,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7838,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -7858,13 +7858,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7878,7 +7878,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -7892,7 +7892,7 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -7906,13 +7906,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7926,13 +7926,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7940,13 +7940,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7954,13 +7954,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -7988,7 +7988,7 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
@@ -8002,7 +8002,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>16</v>
@@ -8016,7 +8016,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -8030,7 +8030,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>15</v>
@@ -8050,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -8078,18 +8078,18 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -8104,7 +8104,7 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8118,7 +8118,7 @@
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -8132,7 +8132,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -8160,7 +8160,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>15</v>
@@ -8180,7 +8180,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -8194,7 +8194,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>16</v>
@@ -8222,13 +8222,13 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8242,13 +8242,13 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8256,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -8276,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -8304,7 +8304,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>15</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
@@ -8338,7 +8338,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>15</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -8358,7 +8358,7 @@
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
@@ -8386,18 +8386,18 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -8426,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -8440,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -8535,7 +8535,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -8555,7 +8555,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8563,7 +8563,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -8597,7 +8597,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -8611,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -8625,7 +8625,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -8659,18 +8659,18 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -8679,7 +8679,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -8693,7 +8693,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -8707,7 +8707,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -8755,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>15</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -8789,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
@@ -8803,7 +8803,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -8837,13 +8837,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8851,7 +8851,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
@@ -8865,13 +8865,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8885,7 +8885,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -8907,13 +8907,13 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8927,13 +8927,13 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -8961,12 +8961,12 @@
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -8975,7 +8975,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>15</v>
@@ -8995,7 +8995,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -9009,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>15</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -9029,7 +9029,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>15</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -9049,7 +9049,7 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
@@ -9063,7 +9063,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>15</v>
@@ -9083,7 +9083,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -9097,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>15</v>
@@ -9117,7 +9117,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -9131,7 +9131,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>16</v>
@@ -9145,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>16</v>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -9173,13 +9173,13 @@
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9193,13 +9193,13 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9207,13 +9207,13 @@
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9221,13 +9221,13 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9235,13 +9235,13 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9249,13 +9249,13 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>15</v>
@@ -9283,13 +9283,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9297,7 +9297,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
@@ -9311,13 +9311,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>16</v>
@@ -9339,13 +9339,13 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9359,7 +9359,7 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>16</v>
@@ -9373,13 +9373,13 @@
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9387,13 +9387,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9401,13 +9401,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,13 +9415,13 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9435,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -9449,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>16</v>
@@ -9477,7 +9477,7 @@
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>15</v>
@@ -9497,7 +9497,7 @@
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>15</v>
@@ -9517,13 +9517,13 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9537,7 +9537,7 @@
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9551,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -9565,13 +9565,13 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9579,13 +9579,13 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -9599,7 +9599,7 @@
         <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>16</v>
@@ -9613,7 +9613,7 @@
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>15</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
@@ -9633,7 +9633,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>16</v>
@@ -9647,7 +9647,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>15</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -9667,13 +9667,13 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9681,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>16</v>
@@ -9695,7 +9695,7 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>15</v>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
@@ -9721,7 +9721,7 @@
         <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -9729,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>16</v>
@@ -9743,18 +9743,18 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
@@ -9763,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>16</v>
@@ -9777,7 +9777,7 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>16</v>
@@ -9791,7 +9791,7 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>16</v>
@@ -9805,13 +9805,13 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -9819,7 +9819,7 @@
         <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>16</v>
@@ -9830,7 +9830,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
@@ -9839,7 +9839,7 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>16</v>
@@ -9853,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>342</v>
@@ -9864,22 +9864,22 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>553</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
         <v>554</v>
       </c>
-      <c r="B113" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" t="s">
-        <v>555</v>
-      </c>
       <c r="D113" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -9940,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -9954,7 +9954,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -9968,7 +9968,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -9988,7 +9988,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -10002,7 +10002,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -10016,7 +10016,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -10036,7 +10036,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -10050,13 +10050,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10064,13 +10064,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10078,13 +10078,13 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10098,7 +10098,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -10112,7 +10112,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -10126,13 +10126,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10140,18 +10140,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -10160,7 +10160,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>15</v>
@@ -10180,13 +10180,13 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
+        <v>732</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>733</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10194,7 +10194,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
@@ -10208,7 +10208,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -10242,13 +10242,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10256,13 +10256,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10270,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -10284,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>15</v>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -10318,13 +10318,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10332,13 +10332,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>15</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -10386,13 +10386,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>15</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -10426,7 +10426,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>15</v>
@@ -10446,7 +10446,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
@@ -10460,13 +10460,13 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -10494,7 +10494,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -10522,13 +10522,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10542,7 +10542,7 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>16</v>
@@ -10556,7 +10556,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>15</v>
@@ -10576,7 +10576,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>16</v>
@@ -10590,7 +10590,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>15</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -10610,13 +10610,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -10638,13 +10638,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>15</v>
@@ -10672,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
@@ -10686,7 +10686,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>15</v>
@@ -10706,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>15</v>
@@ -10726,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
@@ -10740,13 +10740,13 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -10754,7 +10754,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>15</v>
@@ -10774,13 +10774,13 @@
         <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10788,13 +10788,13 @@
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10802,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -10816,13 +10816,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>15</v>
@@ -10850,18 +10850,18 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
+        <v>761</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
         <v>762</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -10870,7 +10870,7 @@
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -10884,7 +10884,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>16</v>
@@ -10898,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>15</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -10918,7 +10918,7 @@
         <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
@@ -10932,7 +10932,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -10946,13 +10946,13 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -10960,13 +10960,13 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>15</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -11053,16 +11053,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>768</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>769</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -11076,7 +11076,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -11090,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -11110,7 +11110,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -11124,7 +11124,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -11138,13 +11138,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11158,7 +11158,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -11172,13 +11172,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -11206,7 +11206,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -11226,7 +11226,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -11240,7 +11240,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
@@ -11254,13 +11254,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11274,7 +11274,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -11288,7 +11288,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -11302,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>15</v>
@@ -11322,18 +11322,18 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -11342,13 +11342,13 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11362,18 +11362,18 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -11382,7 +11382,7 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -11396,13 +11396,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>776</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>15</v>
@@ -11430,7 +11430,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>15</v>
@@ -11450,13 +11450,13 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -11478,7 +11478,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>15</v>
@@ -11498,7 +11498,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -11512,7 +11512,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>342</v>
@@ -11532,7 +11532,7 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -11546,7 +11546,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
@@ -11560,13 +11560,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -11574,7 +11574,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>16</v>
@@ -11588,13 +11588,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -11616,7 +11616,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -11636,7 +11636,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -11650,13 +11650,13 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -11670,7 +11670,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>15</v>
@@ -13962,7 +13962,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -15594,7 +15594,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -15898,7 +15898,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -15935,7 +15935,7 @@
         <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -15949,7 +15949,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
@@ -15963,13 +15963,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
         <v>382</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -15983,7 +15983,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>15</v>
@@ -16003,13 +16003,13 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16023,7 +16023,7 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
@@ -16043,7 +16043,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>15</v>
@@ -16069,7 +16069,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16077,7 +16077,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -16091,13 +16091,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16111,7 +16111,7 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -16145,13 +16145,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -16185,7 +16185,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16199,13 +16199,13 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16233,13 +16233,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -16247,13 +16247,13 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16273,7 +16273,7 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16287,7 +16287,7 @@
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -16307,7 +16307,7 @@
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -16321,7 +16321,7 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>16</v>
@@ -16335,13 +16335,13 @@
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -16349,27 +16349,27 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
         <v>410</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>411</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>15</v>
@@ -16380,7 +16380,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -16389,7 +16389,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>15</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -16437,7 +16437,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>15</v>
@@ -16457,7 +16457,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>15</v>
@@ -16477,7 +16477,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>16</v>
@@ -16491,7 +16491,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -16505,7 +16505,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>16</v>
@@ -16525,21 +16525,21 @@
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
         <v>419</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" t="s">
-        <v>420</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -16553,7 +16553,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>15</v>
@@ -16564,7 +16564,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -16573,7 +16573,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>16</v>
@@ -16587,7 +16587,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>16</v>
@@ -16601,7 +16601,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -16629,7 +16629,7 @@
         <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
@@ -16703,7 +16703,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16725,7 +16725,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -16739,13 +16739,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>428</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -16787,7 +16787,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -16798,7 +16798,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -16807,7 +16807,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -16852,7 +16852,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -16881,13 +16881,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -16915,13 +16915,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -16929,13 +16929,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16949,7 +16949,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -16994,7 +16994,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -17017,7 +17017,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -17037,12 +17037,12 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -17051,13 +17051,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17071,7 +17071,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
@@ -17091,13 +17091,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -17105,7 +17105,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>15</v>
@@ -17125,7 +17125,7 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
@@ -17145,7 +17145,7 @@
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -17159,13 +17159,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -17173,13 +17173,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -17207,13 +17207,13 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -17241,13 +17241,13 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -17261,7 +17261,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
@@ -17275,13 +17275,13 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -17309,13 +17309,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -17349,7 +17349,7 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -17397,7 +17397,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
@@ -17411,13 +17411,13 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -17425,13 +17425,13 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -17445,7 +17445,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -17465,7 +17465,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -17473,13 +17473,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -17493,7 +17493,7 @@
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
@@ -17507,7 +17507,7 @@
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -17555,7 +17555,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -17569,7 +17569,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>16</v>
@@ -17608,7 +17608,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -17642,7 +17642,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -17665,13 +17665,13 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -17685,7 +17685,7 @@
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -17704,7 +17704,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -17719,7 +17719,7 @@
         <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -17741,7 +17741,7 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>16</v>
@@ -17769,18 +17769,18 @@
         <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -17795,7 +17795,7 @@
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -17809,13 +17809,13 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -17829,7 +17829,7 @@
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>16</v>
@@ -17871,13 +17871,13 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -17885,7 +17885,7 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>16</v>
@@ -17952,13 +17952,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>486</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17977,16 +17977,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>488</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>489</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -18006,7 +18006,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -18020,7 +18020,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -18040,7 +18040,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -18060,7 +18060,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
@@ -18085,7 +18085,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -18100,7 +18100,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -18114,7 +18114,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
@@ -18128,7 +18128,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -18142,7 +18142,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>15</v>
@@ -18162,13 +18162,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -18182,7 +18182,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>15</v>
@@ -18193,7 +18193,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -18202,13 +18202,13 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -18216,7 +18216,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>15</v>
@@ -18236,7 +18236,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
@@ -18250,7 +18250,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -18264,18 +18264,18 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -18284,7 +18284,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -18298,7 +18298,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -18312,7 +18312,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -18326,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -18340,7 +18340,7 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -18360,7 +18360,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
@@ -18374,7 +18374,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -18388,13 +18388,13 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -18408,7 +18408,7 @@
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18422,7 +18422,7 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>16</v>
@@ -18436,13 +18436,13 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -18484,7 +18484,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -18498,7 +18498,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>16</v>
@@ -18518,7 +18518,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -18560,7 +18560,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>15</v>
@@ -18608,7 +18608,7 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
@@ -18622,7 +18622,7 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
@@ -18636,7 +18636,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
@@ -18656,7 +18656,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -18670,7 +18670,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -18678,13 +18678,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -18692,7 +18692,7 @@
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>15</v>
@@ -18712,13 +18712,13 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -18732,7 +18732,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -18752,7 +18752,7 @@
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -18766,13 +18766,13 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -18786,13 +18786,13 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
+        <v>528</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
         <v>529</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -18800,13 +18800,13 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -18814,7 +18814,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>15</v>
@@ -18834,7 +18834,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -18868,7 +18868,7 @@
         <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>16</v>
@@ -18882,7 +18882,7 @@
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -18896,13 +18896,13 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
+        <v>532</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
         <v>533</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -18910,7 +18910,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>15</v>
@@ -18921,16 +18921,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>537</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
         <v>538</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>539</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>15</v>
@@ -18950,7 +18950,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
@@ -18978,13 +18978,13 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -19012,18 +19012,18 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
+        <v>542</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
         <v>543</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -19032,7 +19032,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>16</v>
@@ -19046,18 +19046,18 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -19066,13 +19066,13 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -19094,13 +19094,13 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -19114,7 +19114,7 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>16</v>
@@ -19128,13 +19128,13 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
+        <v>549</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
         <v>550</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -19142,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>15</v>
@@ -19153,16 +19153,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>553</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
         <v>554</v>
       </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
-        <v>555</v>
-      </c>
       <c r="D105" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>15</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D106" t="s">
         <v>321</v>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8094" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5300540-5179-4C0B-940F-DBB5C3327400}"/>
+  <xr:revisionPtr revIDLastSave="8106" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EAA427C-5381-4FBB-A3A8-40E0CC43977B}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <sheet name="2011" sheetId="17" r:id="rId13"/>
     <sheet name="2012" sheetId="18" r:id="rId14"/>
     <sheet name="2013" sheetId="19" r:id="rId15"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
-    <sheet name="Wins-Losses" sheetId="20" r:id="rId17"/>
-    <sheet name="Winning Percentile Range" sheetId="21" r:id="rId18"/>
+    <sheet name="Stats" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2702,7 +2700,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2723,7 +2721,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2777,7 +2775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
+              <c:f>Stats!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2831,7 +2829,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA56-4600-AC7A-DA6CE2D50CE6}"/>
+              <c16:uniqueId val="{00000000-DDEF-40B0-9417-2DC84D48C4D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2840,7 +2838,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2861,7 +2859,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2915,7 +2913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
+              <c:f>Stats!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2969,7 +2967,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA56-4600-AC7A-DA6CE2D50CE6}"/>
+              <c16:uniqueId val="{00000001-DDEF-40B0-9417-2DC84D48C4D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3271,6 +3269,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3359,7 +3362,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3408,7 +3411,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>Stats!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3462,7 +3465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
+              <c:f>Stats!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3517,7 +3520,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE2B-4B21-BB36-2F71F406C230}"/>
+              <c16:uniqueId val="{00000001-7BCF-40E8-8432-DD44421BE313}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3819,6 +3822,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4908,47 +4916,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2C4C579C-D1B5-441D-B68A-5E8A35AB8CD2}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E3CFA0FE-9C32-45BD-AF6D-033E88FE544E}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22E8046-16A6-DC7D-02FD-52B838CE9982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B0A432-FECE-87FE-D008-F5FA4DA40D88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4961,27 +4953,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AED151-2E79-1170-B1BB-6F32A796B6E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB1FA6D-595C-AB17-053F-E8DF1C1B29F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4989,13 +4984,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5300,7 +5299,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5387,7 +5386,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6375,7 +6374,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7519,7 +7518,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8490,7 +8489,7 @@
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9895,7 +9894,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11017,7 +11016,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11721,7 +11720,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12137,6 +12136,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12147,7 +12147,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12234,7 +12234,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12700,7 +12700,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13514,7 +13514,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14586,7 +14586,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15588,7 +15588,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16652,7 +16652,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17907,7 +17907,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Marion Bartoli.xlsx
+++ b/Tennis/WTA Tour/Marion Bartoli.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8106" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EAA427C-5381-4FBB-A3A8-40E0CC43977B}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1999" sheetId="5" r:id="rId1"/>
@@ -5299,8 +5299,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,8 +5386,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6374,8 +6374,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7518,8 +7518,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8489,8 +8489,8 @@
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9894,8 +9894,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11016,8 +11016,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11720,7 +11720,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12147,8 +12147,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12234,8 +12234,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12700,8 +12700,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13514,8 +13514,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14586,8 +14586,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15588,8 +15588,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16652,8 +16652,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17907,8 +17907,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
